--- a/biology/Médecine/Muscle_long_extenseur_de_l'hallux/Muscle_long_extenseur_de_l'hallux.xlsx
+++ b/biology/Médecine/Muscle_long_extenseur_de_l'hallux/Muscle_long_extenseur_de_l'hallux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muscle_long_extenseur_de_l%27hallux</t>
+          <t>Muscle_long_extenseur_de_l'hallux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle long extenseur de l'hallux (ou muscle extenseur propre du gros orteil) est un muscle du membre inférieur situé dans la jambe. Il est contenu dans la loge crurale antérieure.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Muscle_long_extenseur_de_l%27hallux</t>
+          <t>Muscle_long_extenseur_de_l'hallux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle long extenseur de l'hallux est le muscle le plus profond de la loge crurale antérieure. Il relie la fibula à la phalange distale de l'hallux. 
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Muscle_long_extenseur_de_l%27hallux</t>
+          <t>Muscle_long_extenseur_de_l'hallux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle long extenseur de l'hallux se fixe sur la partie moyenne de la face médiale de la fibula et de la partie voisine de la membrane interosseuse. Il peut aller même jusqu'au tibia.
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Muscle_long_extenseur_de_l%27hallux</t>
+          <t>Muscle_long_extenseur_de_l'hallux</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle long extenseur de l'hallux descend verticalement en dehors du muscle tibial antérieur, se transforme en tendon et passe sous le rétinaculum des muscles extenseurs du pied entouré d'une gaine synoviale.
 </t>
@@ -586,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Muscle_long_extenseur_de_l%27hallux</t>
+          <t>Muscle_long_extenseur_de_l'hallux</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,7 +622,9 @@
           <t>Terminaison</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le tendon du muscle long extenseur de l'hallux s'insère à la base de la face dorsale de la phalange distale du gros orteil (Hallux).
 </t>
@@ -617,7 +637,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Muscle_long_extenseur_de_l%27hallux</t>
+          <t>Muscle_long_extenseur_de_l'hallux</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -635,7 +655,9 @@
           <t>Innervation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle long extenseur de l'hallux est innervé par une branche du nerf fibulaire profond.
 </t>
@@ -648,7 +670,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Muscle_long_extenseur_de_l%27hallux</t>
+          <t>Muscle_long_extenseur_de_l'hallux</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -666,7 +688,9 @@
           <t>Vascularisation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle long extenseur de l'hallux est vascularisé par une branche de l'artère tibiale antérieure.
 </t>
@@ -679,7 +703,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Muscle_long_extenseur_de_l%27hallux</t>
+          <t>Muscle_long_extenseur_de_l'hallux</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -697,7 +721,9 @@
           <t>Anatomie fonctionnelle</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle long extenseur de l'hallux est extenseur des deux articulations du premier orteil et est légèrement fléchisseur dorsal du pied sur la jambe.
 Le muscle long fléchisseur de l'hallux et le muscle court fléchisseur de l'hallux sont antagonistes du muscle long extenseur de l'hallux .
